--- a/plugins/GridToExcel/assets/book.xlsx
+++ b/plugins/GridToExcel/assets/book.xlsx
@@ -107,16 +107,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B1" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:B1"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name=""/>
-    <tableColumn id="2" name=""/>
-  </tableColumns>
-</table>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -137,8 +127,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>